--- a/Document/아이템/ESCAPE ISLAND 아이템.xlsx
+++ b/Document/아이템/ESCAPE ISLAND 아이템.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\Document\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C20401-9452-46DB-B066-0499B15D1C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18F50AE-1670-4C07-9F74-6661B4E49BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
   </bookViews>
   <sheets>
     <sheet name="인원 수당 재료 수" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">                재료 인원 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
     <t>낮/ 밤 시간 (초)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +148,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -263,18 +265,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,25 +284,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +628,7 @@
   <dimension ref="B3:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,605 +638,776 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1">
+      <c r="C5" s="2"/>
+      <c r="D5" s="8">
         <v>32</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="8">
         <v>15</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="8">
         <v>10</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="8">
         <v>8</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="8">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5">
         <v>36</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>15</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>12</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>4</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>4</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>16</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>12</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <v>10</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="L7" s="8">
+        <v>9</v>
+      </c>
+      <c r="M7" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1">
+      <c r="C9" s="2"/>
+      <c r="D9" s="8">
         <v>40</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="8">
         <v>18</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="8">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="8">
         <v>5</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="8">
         <v>17</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="8">
         <v>14</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="8">
         <v>12</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="8">
+        <v>12</v>
+      </c>
+      <c r="M9" s="8">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="8">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5">
         <v>44</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>21</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>16</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>6</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <v>6</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <v>18</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="5">
         <v>16</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="5">
         <v>14</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="8">
+        <v>15</v>
+      </c>
+      <c r="M11" s="8">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1">
+      <c r="C13" s="2"/>
+      <c r="D13" s="8">
         <v>48</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="8">
         <v>24</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="8">
         <v>18</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="8">
         <v>7</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="8">
         <v>7</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="8">
         <v>19</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="8">
         <v>18</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="8">
         <v>16</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="L13" s="8">
+        <v>18</v>
+      </c>
+      <c r="M13" s="8">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8">
+      <c r="C15" s="2"/>
+      <c r="D15" s="5">
         <v>52</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>27</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>20</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <v>8</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <v>8</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="5">
         <v>20</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <v>20</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="5">
         <v>18</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="L15" s="8">
+        <v>21</v>
+      </c>
+      <c r="M15" s="8">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1">
+      <c r="C17" s="2"/>
+      <c r="D17" s="8">
         <v>56</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="8">
         <v>30</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="8">
         <v>22</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="8">
         <v>9</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="8">
         <v>9</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="8">
         <v>21</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="8">
         <v>22</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="8">
         <v>20</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="L17" s="8">
+        <v>24</v>
+      </c>
+      <c r="M17" s="8">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="8">
+      <c r="C19" s="2"/>
+      <c r="D19" s="5">
         <v>60</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>33</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>24</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>10</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <v>10</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="5">
         <v>22</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="5">
         <v>24</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="5">
         <v>22</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="L19" s="8">
+        <v>27</v>
+      </c>
+      <c r="M19" s="8">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>12</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1">
+      <c r="C21" s="2"/>
+      <c r="D21" s="8">
         <v>64</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="8">
         <v>36</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="8">
         <v>26</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="8">
         <v>11</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="8">
         <v>11</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="8">
         <v>23</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="8">
         <v>26</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="8">
         <v>24</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="L21" s="8">
+        <v>30</v>
+      </c>
+      <c r="M21" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="8">
+      <c r="C23" s="2"/>
+      <c r="D23" s="5">
         <v>68</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>39</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <v>28</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="5">
         <v>12</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="5">
         <v>12</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="5">
         <v>24</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="5">
         <v>28</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="5">
         <v>26</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="8">
+        <v>33</v>
+      </c>
+      <c r="M23" s="8">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <v>14</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1">
+      <c r="C25" s="2"/>
+      <c r="D25" s="8">
         <v>72</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="8">
         <v>42</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="8">
         <v>30</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="8">
         <v>13</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="8">
         <v>13</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="8">
         <v>25</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="8">
         <v>30</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="8">
         <v>28</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="L25" s="8">
+        <v>36</v>
+      </c>
+      <c r="M25" s="8">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <v>15</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8">
+      <c r="C27" s="2"/>
+      <c r="D27" s="5">
         <v>76</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>45</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <v>32</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <v>14</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="5">
         <v>14</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="5">
         <v>26</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="5">
         <v>32</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="5">
         <v>30</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="8">
+        <v>39</v>
+      </c>
+      <c r="M27" s="8">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="143">
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="B5:C6"/>
@@ -1265,101 +1432,6 @@
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1381,485 +1453,543 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>7</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>8</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>10</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>11</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="9">
         <v>12</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="9">
         <v>13</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>14</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>90</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>90</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>90</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>90</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>120</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>120</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="8">
         <v>120</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="8">
         <v>120</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="8">
         <v>150</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="8">
         <v>150</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="8">
         <v>150</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="8">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -1884,16 +2014,16 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C27:C28"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
@@ -1908,91 +2038,33 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/아이템/ESCAPE ISLAND 아이템.xlsx
+++ b/Document/아이템/ESCAPE ISLAND 아이템.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\Document\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18F50AE-1670-4C07-9F74-6661B4E49BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957D3E4-DC14-4C27-9C9E-EFCCBF8C436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
+    <workbookView xWindow="30075" yWindow="2535" windowWidth="17865" windowHeight="11295" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
   </bookViews>
   <sheets>
     <sheet name="인원 수당 재료 수" sheetId="1" r:id="rId1"/>
@@ -269,6 +269,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,25 +296,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F45689-DBCB-4087-BD74-A3BAA128D243}">
   <dimension ref="B3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,743 +638,687 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8">
+      <c r="C5" s="5"/>
+      <c r="D5" s="1">
         <v>32</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="1">
         <v>12</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="1">
         <v>15</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="1">
         <v>8</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="1">
         <v>6</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5">
+      <c r="C7" s="5"/>
+      <c r="D7" s="8">
         <v>36</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>15</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>12</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>4</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
         <v>4</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="8">
         <v>16</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="8">
         <v>12</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="8">
         <v>10</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="1">
         <v>9</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8">
+      <c r="C9" s="5"/>
+      <c r="D9" s="1">
         <v>40</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="1">
         <v>18</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="1">
         <v>14</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="1">
         <v>17</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="1">
         <v>14</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="1">
         <v>12</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="1">
         <v>12</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="8">
         <v>44</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>21</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>16</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="8">
         <v>6</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="8">
         <v>6</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="8">
         <v>18</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="8">
         <v>16</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="8">
         <v>14</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="1">
         <v>15</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8">
+      <c r="C13" s="5"/>
+      <c r="D13" s="1">
         <v>48</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="1">
         <v>24</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="1">
         <v>18</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="1">
         <v>7</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="1">
         <v>7</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="1">
         <v>19</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="1">
         <v>18</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="1">
         <v>16</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="1">
         <v>18</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5">
+      <c r="C15" s="5"/>
+      <c r="D15" s="8">
         <v>52</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>27</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="8">
         <v>20</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="8">
         <v>8</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="8">
         <v>8</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="8">
         <v>20</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="8">
         <v>20</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="8">
         <v>18</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="1">
         <v>21</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8">
+      <c r="C17" s="5"/>
+      <c r="D17" s="1">
         <v>56</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="1">
         <v>30</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="1">
         <v>22</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="1">
         <v>9</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="1">
         <v>9</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="1">
         <v>21</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="1">
         <v>22</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="1">
         <v>20</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="1">
         <v>24</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>11</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5">
+      <c r="C19" s="5"/>
+      <c r="D19" s="8">
         <v>60</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <v>33</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="8">
         <v>24</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="8">
         <v>10</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="8">
         <v>10</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="8">
         <v>22</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="8">
         <v>24</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="8">
         <v>22</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="1">
         <v>27</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>12</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8">
+      <c r="C21" s="5"/>
+      <c r="D21" s="1">
         <v>64</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="1">
         <v>36</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="1">
         <v>26</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="1">
         <v>11</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="1">
         <v>11</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="1">
         <v>23</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="1">
         <v>26</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="1">
         <v>24</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="1">
         <v>30</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>13</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5">
+      <c r="C23" s="5"/>
+      <c r="D23" s="8">
         <v>68</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <v>39</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="8">
         <v>28</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="8">
         <v>12</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="8">
         <v>12</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="8">
         <v>24</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="8">
         <v>28</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="8">
         <v>26</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="1">
         <v>33</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>14</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8">
+      <c r="C25" s="5"/>
+      <c r="D25" s="1">
         <v>72</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="1">
         <v>42</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="1">
         <v>30</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="1">
         <v>13</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="1">
         <v>13</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="1">
         <v>25</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="1">
         <v>30</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="1">
         <v>28</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="1">
         <v>36</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>15</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5">
+      <c r="C27" s="5"/>
+      <c r="D27" s="8">
         <v>76</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="8">
         <v>45</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="8">
         <v>32</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="8">
         <v>14</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="8">
         <v>14</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="8">
         <v>26</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="8">
         <v>32</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="8">
         <v>30</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="1">
         <v>39</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="I5:I6"/>
@@ -1399,39 +1343,95 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M15:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1453,543 +1453,500 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>4</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="3">
         <v>6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="3">
         <v>7</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="3">
         <v>8</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="3">
         <v>9</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="3">
         <v>10</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="3">
         <v>11</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="3">
         <v>12</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="3">
         <v>13</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="3">
         <v>14</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="14">
         <v>90</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="1">
         <v>90</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="1">
         <v>90</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="1">
         <v>90</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="1">
         <v>120</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="1">
         <v>120</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="1">
         <v>120</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="1">
         <v>120</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="1">
         <v>150</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="1">
         <v>150</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="1">
         <v>150</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -2014,57 +1971,100 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/아이템/ESCAPE ISLAND 아이템.xlsx
+++ b/Document/아이템/ESCAPE ISLAND 아이템.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\Document\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957D3E4-DC14-4C27-9C9E-EFCCBF8C436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171FE34A-3887-4599-BA6B-98FADEA0FD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="2535" windowWidth="17865" windowHeight="11295" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
+    <workbookView xWindow="48765" yWindow="405" windowWidth="17865" windowHeight="11295" activeTab="2" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
   </bookViews>
   <sheets>
     <sheet name="인원 수당 재료 수" sheetId="1" r:id="rId1"/>
     <sheet name="인원 수당 낮밤 시간" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="맵 래퍼런스" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">                재료 인원 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,12 +90,61 @@
     <t>구리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>모래사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정제소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인로비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제련소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뗏목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소 바닥과 유사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 흙바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 있던 돌에서 광석이
+ 조금 박혀있는 돌로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +171,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -265,17 +347,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,8 +375,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,8 +393,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,6 +441,1794 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>218209</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>126423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3037609</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2268435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C1DF8B-1F1D-4529-A3F9-A9C07518C5C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1690254" y="749878"/>
+          <a:ext cx="2819400" cy="2142012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>259773</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2788227</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3109765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A7E233-4CC7-4DE9-90DD-B511B79CF4D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1731818" y="3030682"/>
+          <a:ext cx="2528454" cy="3057810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>449035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1921034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039CAE6A-6845-47D8-A92B-0D4942066A8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1687286" y="6572249"/>
+          <a:ext cx="2721428" cy="1471999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>294410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3051016</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1974274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12ECCCFB-0F79-4790-BD65-E528B998497F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593272" y="8780319"/>
+          <a:ext cx="2929789" cy="1679864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>484910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3117273</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1955526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB5F9F0-2BC9-4126-AD42-2B77C9FD337D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1506681" y="11326092"/>
+          <a:ext cx="3082637" cy="1470616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>311728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3053049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2026228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08642FDF-8D2B-4830-AAB8-EB87657E41DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1575954" y="13508183"/>
+          <a:ext cx="2949140" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>363682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2941021</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1868842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED84FCAA-DA89-4D32-92D0-487510445084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593272" y="15915409"/>
+          <a:ext cx="2819794" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>675410</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2528456</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1933456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8" descr="야자수 - 스톡일러스트 [41030134] - PIXTA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7BB609-998F-4E76-8BAF-568BF0CDBE49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5282046" y="744681"/>
+          <a:ext cx="1853046" cy="1812230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="야자수 숲">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAC3878-BA95-42D8-823E-6427E26308BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7734300" y="628650"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3059536</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2060863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12" descr="야자수 숲">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F3CB61-38B0-42B5-AC14-1D362328CAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10962409" y="692728"/>
+          <a:ext cx="2972945" cy="1991590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2996045</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2117481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13" descr="해변의 모래 사장 클립아트 벡터 및 일러스트. 3,887 해변의 모래 사장 클립아트 벡터 EPS 이미지는 수천 명의 저작권에 구애 받지  않는 스톡 아트와 스톡 일러스트 디자이너를 통해 검색할 수 있습니다.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16F2430-60C8-4F46-A10D-7111DFBC3D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="6193"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7987012" y="741351"/>
+          <a:ext cx="2753591" cy="2013572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3005570</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1729220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14" descr="tid327t0006* 여름 사람 여름 여름 여름 여름 사람 바다 - 이미지투데이 :: 통로이미지(주)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC72DB6E-357F-407A-976A-685175C29B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14148954" y="762000"/>
+          <a:ext cx="2867025" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596346</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2444875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1620632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CB42F8-A7D0-4C85-9065-681B910D9CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId13">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="5153" b="93511" l="3292" r="93417">
+                      <a14:foregroundMark x1="13323" y1="45802" x2="11285" y2="79008"/>
+                      <a14:foregroundMark x1="11285" y1="79008" x2="36207" y2="88740"/>
+                      <a14:foregroundMark x1="36207" y1="88740" x2="93417" y2="74618"/>
+                      <a14:foregroundMark x1="93417" y1="74618" x2="55643" y2="10687"/>
+                      <a14:foregroundMark x1="55643" y1="10687" x2="49373" y2="21374"/>
+                      <a14:foregroundMark x1="45141" y1="19466" x2="64890" y2="9733"/>
+                      <a14:foregroundMark x1="64890" y1="9733" x2="67868" y2="15267"/>
+                      <a14:foregroundMark x1="65517" y1="5916" x2="50784" y2="5916"/>
+                      <a14:foregroundMark x1="12696" y1="50382" x2="6740" y2="75954"/>
+                      <a14:foregroundMark x1="6740" y1="75954" x2="11599" y2="82061"/>
+                      <a14:foregroundMark x1="5016" y1="58015" x2="3292" y2="69847"/>
+                      <a14:foregroundMark x1="55486" y1="5153" x2="64420" y2="6298"/>
+                      <a14:foregroundMark x1="27743" y1="91031" x2="49216" y2="93511"/>
+                      <a14:foregroundMark x1="49216" y1="93511" x2="54389" y2="86641"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324020" y="3075861"/>
+          <a:ext cx="1848529" cy="1518228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1521295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2862210</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3096825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F6827F-DA05-430E-8078-4F6B4EEF0D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId15">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="4330" b="97732" l="2267" r="95200">
+                      <a14:foregroundMark x1="12667" y1="69897" x2="25867" y2="91134"/>
+                      <a14:foregroundMark x1="20000" y1="83093" x2="7067" y2="75258"/>
+                      <a14:foregroundMark x1="3867" y1="73196" x2="2267" y2="83505"/>
+                      <a14:foregroundMark x1="19467" y1="97320" x2="23467" y2="98144"/>
+                      <a14:foregroundMark x1="68267" y1="18557" x2="88533" y2="18969"/>
+                      <a14:foregroundMark x1="88533" y1="18969" x2="95200" y2="38144"/>
+                      <a14:foregroundMark x1="68533" y1="5979" x2="75600" y2="4330"/>
+                      <a14:backgroundMark x1="63467" y1="74433" x2="90400" y2="58969"/>
+                      <a14:backgroundMark x1="64000" y1="75258" x2="75333" y2="61443"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8157495" y="4503605"/>
+          <a:ext cx="2436387" cy="1575530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403038</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>966904</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2270264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE05BE6-B6A4-4FB4-A15C-F324FE0BB223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId17">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="4912" b="96071" l="8696" r="88406">
+                      <a14:foregroundMark x1="61594" y1="79371" x2="35507" y2="96071"/>
+                      <a14:foregroundMark x1="48551" y1="74067" x2="41304" y2="19057"/>
+                      <a14:foregroundMark x1="60145" y1="18861" x2="61594" y2="11002"/>
+                      <a14:foregroundMark x1="54348" y1="9627" x2="45652" y2="6876"/>
+                      <a14:foregroundMark x1="74638" y1="11984" x2="47101" y2="8841"/>
+                      <a14:foregroundMark x1="78261" y1="10413" x2="31884" y2="13556"/>
+                      <a14:foregroundMark x1="65942" y1="10216" x2="25362" y2="16306"/>
+                      <a14:foregroundMark x1="17391" y1="11591" x2="74638" y2="8055"/>
+                      <a14:foregroundMark x1="69565" y1="9234" x2="34783" y2="4912"/>
+                      <a14:foregroundMark x1="50000" y1="7859" x2="40580" y2="7859"/>
+                      <a14:backgroundMark x1="95652" y1="79568" x2="96377" y2="95481"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8146303" y="11037793"/>
+          <a:ext cx="563866" cy="2079765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1519536</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>273843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1943138</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2232661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC9E56A-A238-456B-8F8B-3C78CBE20383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId19">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="5458" b="97856" l="9910" r="87387">
+                      <a14:foregroundMark x1="45045" y1="20273" x2="64865" y2="17154"/>
+                      <a14:foregroundMark x1="48649" y1="14230" x2="48649" y2="7018"/>
+                      <a14:foregroundMark x1="54955" y1="7797" x2="11712" y2="9552"/>
+                      <a14:foregroundMark x1="72973" y1="7212" x2="23423" y2="11696"/>
+                      <a14:foregroundMark x1="49550" y1="8577" x2="71171" y2="8382"/>
+                      <a14:foregroundMark x1="65766" y1="5653" x2="19820" y2="6433"/>
+                      <a14:foregroundMark x1="27027" y1="83236" x2="81081" y2="84990"/>
+                      <a14:foregroundMark x1="48649" y1="89474" x2="69369" y2="97856"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9246692" y="11108531"/>
+          <a:ext cx="423602" cy="1958818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2583873</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2385579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21" descr="나무 작은 섬 나무에 대한 스톡 벡터 아트 및 기타 이미지 - iStock">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282D3375-D54B-4B40-BB58-28E052EA85D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5056909" y="3221181"/>
+          <a:ext cx="2133600" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>661147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2865904</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2404222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22" descr="하와이 오아후 섬 나무 - Pixabay의 무료 사진">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE1C3DE-5816-4524-BD8C-2F1FA07EC7D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11127441" y="3653118"/>
+          <a:ext cx="2619375" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>432955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3107916</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2424546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24" descr="100대 명산 숲길' 스마트폰으로 볼 수 있게 된다 - 세이프타임즈">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121EA375-35F4-406E-B984-43D9DE2B2CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14131636" y="3411682"/>
+          <a:ext cx="2986689" cy="1991591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2679989</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2298989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25" descr="250 LPH 수도 시설 수신 전용 시스템 상업적 수신 전용 물 정제 장치 공장">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B20103-DD78-420D-98CF-94B95F388448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5143500" y="6286500"/>
+          <a:ext cx="2143125" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2778702</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2090304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26" descr="나무상자, 나무상자 만들기, 나무로 만든 상자, 나무로된  상자,상자제작,상자주문,목상자,오동나무상자,오동상자,상자샘플,mdf상자,나무상자 판매">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EC0B0C-617D-417B-A746-E078FA3B4C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4918363" y="8728363"/>
+          <a:ext cx="2466975" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>478798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2741415</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2273374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27" descr="흰색 배경에 오래 된 나무 그루터기 테이블 상단의 아름 다운 질감입니다 그루터기-식물 부위에 대한 스톡 사진 및 기타 이미지 -  iStock">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2EE753-0F65-4F50-B0F9-D6568DA605F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId26">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="9977" b="89559" l="9314" r="91503">
+                      <a14:foregroundMark x1="11928" y1="67517" x2="9314" y2="85151"/>
+                      <a14:foregroundMark x1="87582" y1="68677" x2="91503" y2="81671"/>
+                      <a14:foregroundMark x1="91503" y1="81671" x2="90523" y2="83063"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7933763" y="8972857"/>
+          <a:ext cx="2550917" cy="1794576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2120690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E4E686-FB62-4D00-993C-4E0CDFAEEA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="8667751"/>
+          <a:ext cx="2000250" cy="1954002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1895475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29" descr="일러스트, 손으로 그린 ​​토지 프로필, 수채화 그림, 각도, 그린 png | PNGWing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3666E945-0329-4C3D-B908-CA1F29497E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14287500" y="8596313"/>
+          <a:ext cx="2543175" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504868</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2581275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2234046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCB3C7B-F787-4D3A-A9A7-C0AE93C66B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8246095" y="13283047"/>
+          <a:ext cx="2076407" cy="2147454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124181</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3041939</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2147455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32" descr="선착장 벡터 클립아트 일러스트. 5,678 선착장 클립아트 벡터 EPS 그림은 수천 명의 저작권에 구애 받지 않는 일러스트레이터를 통해  검색할 수 있습니다.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3D31F3-5B81-4007-BEAE-85D34BAA080C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="6977"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4730817" y="13265728"/>
+          <a:ext cx="2917758" cy="2078182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69963</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2234047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2970935</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>277092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59911FB-6367-4C3F-A144-83BAFFF0343F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10945781" y="13075229"/>
+          <a:ext cx="2900972" cy="2753590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464128</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2667001</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2164754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34" descr="나무 뗏목 PNG 이미지 | PNGWing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8C6981-1539-4F69-BFE9-356490F93007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId33">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="6502" b="99381" l="3056" r="98611">
+                      <a14:foregroundMark x1="24444" y1="13003" x2="45278" y2="27864"/>
+                      <a14:foregroundMark x1="45278" y1="27864" x2="57222" y2="14241"/>
+                      <a14:foregroundMark x1="55000" y1="27864" x2="22500" y2="26006"/>
+                      <a14:foregroundMark x1="22500" y1="26006" x2="21667" y2="25697"/>
+                      <a14:foregroundMark x1="28333" y1="20433" x2="31111" y2="27864"/>
+                      <a14:foregroundMark x1="52500" y1="27554" x2="52778" y2="6502"/>
+                      <a14:foregroundMark x1="56667" y1="16409" x2="57222" y2="35294"/>
+                      <a14:foregroundMark x1="38056" y1="87307" x2="59722" y2="89474"/>
+                      <a14:foregroundMark x1="45556" y1="93498" x2="50833" y2="99381"/>
+                      <a14:foregroundMark x1="13611" y1="69659" x2="3056" y2="66254"/>
+                      <a14:foregroundMark x1="29167" y1="10217" x2="29167" y2="15170"/>
+                      <a14:foregroundMark x1="86111" y1="41486" x2="91389" y2="52322"/>
+                      <a14:foregroundMark x1="98611" y1="45201" x2="98611" y2="45201"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5070764" y="15728373"/>
+          <a:ext cx="2202873" cy="1988108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>346364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3037883</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1731819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABC0F79-CFFC-4087-9C77-EE877646DDFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593272" y="18253364"/>
+          <a:ext cx="2916656" cy="1385455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461729</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2616776</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2320637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62EE951-6ADF-4973-ABF2-1C6EA7F29616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8202956" y="18062864"/>
+          <a:ext cx="2155047" cy="2164773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95107</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3076574</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2147454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3FA3EF-1FA4-4464-8B06-DDDF23854484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4701743" y="18062863"/>
+          <a:ext cx="2981467" cy="1991591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F45689-DBCB-4087-BD74-A3BAA128D243}">
   <dimension ref="B3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M27" sqref="M27:M28"/>
     </sheetView>
   </sheetViews>
@@ -638,657 +2541,776 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1">
+      <c r="C5" s="4"/>
+      <c r="D5" s="9">
         <v>32</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="9">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="9">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="9">
         <v>15</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="9">
         <v>10</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="9">
         <v>6</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8">
+      <c r="C7" s="4"/>
+      <c r="D7" s="7">
         <v>36</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>15</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>12</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>4</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>16</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>12</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>10</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="9">
         <v>9</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1">
+      <c r="C9" s="4"/>
+      <c r="D9" s="9">
         <v>40</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="9">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="9">
         <v>5</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="9">
         <v>17</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="9">
         <v>14</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="9">
         <v>12</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="9">
         <v>12</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="8">
+      <c r="C11" s="4"/>
+      <c r="D11" s="7">
         <v>44</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>21</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>16</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>6</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>18</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>16</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>14</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="9">
         <v>15</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1">
+      <c r="C13" s="4"/>
+      <c r="D13" s="9">
         <v>48</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>24</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="9">
         <v>18</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="9">
         <v>7</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="9">
         <v>19</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="9">
         <v>18</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="9">
         <v>16</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="9">
         <v>18</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8">
+      <c r="C15" s="4"/>
+      <c r="D15" s="7">
         <v>52</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>27</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>20</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>8</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>20</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>20</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>18</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="9">
         <v>21</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1">
+      <c r="C17" s="4"/>
+      <c r="D17" s="9">
         <v>56</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="9">
         <v>30</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="9">
         <v>22</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="9">
         <v>9</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="9">
         <v>9</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="9">
         <v>21</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="9">
         <v>22</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="9">
         <v>20</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="9">
         <v>24</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>11</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="8">
+      <c r="C19" s="4"/>
+      <c r="D19" s="7">
         <v>60</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>33</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>24</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>10</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>10</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>22</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>24</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>22</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="9">
         <v>27</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="9">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>12</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1">
+      <c r="C21" s="4"/>
+      <c r="D21" s="9">
         <v>64</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="9">
         <v>36</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="9">
         <v>26</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="9">
         <v>11</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="9">
         <v>11</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="9">
         <v>23</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="9">
         <v>26</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="9">
         <v>24</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="9">
         <v>30</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="8">
+      <c r="C23" s="4"/>
+      <c r="D23" s="7">
         <v>68</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>39</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>28</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>12</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>12</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>24</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>28</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>26</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="9">
         <v>33</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>14</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1">
+      <c r="C25" s="4"/>
+      <c r="D25" s="9">
         <v>72</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="9">
         <v>42</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="9">
         <v>30</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="9">
         <v>13</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="9">
         <v>13</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="9">
         <v>25</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="9">
         <v>30</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="9">
         <v>28</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="9">
         <v>36</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="9">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>15</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8">
+      <c r="C27" s="4"/>
+      <c r="D27" s="7">
         <v>76</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>45</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>32</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>14</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>14</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>26</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>32</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>30</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="9">
         <v>39</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
@@ -1313,125 +3335,6 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M15:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1453,449 +3356,594 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="10">
         <v>6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="10">
         <v>7</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="10">
         <v>8</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="10">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="10">
         <v>10</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="10">
         <v>11</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="10">
         <v>12</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="10">
         <v>13</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="10">
         <v>14</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>90</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>90</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="9">
         <v>90</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="9">
         <v>90</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9">
         <v>120</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9">
         <v>120</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="9">
         <v>120</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="9">
         <v>120</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="9">
         <v>150</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="9">
         <v>150</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="9">
         <v>150</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="M23:M24"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="M27:M28"/>
@@ -1920,151 +3968,6 @@
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,15 +3976,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6920F41F-4BB5-4DF8-AC05-BAB8CDAF8AAC}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="9" width="41.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="2:9" ht="248.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/아이템/ESCAPE ISLAND 아이템.xlsx
+++ b/Document/아이템/ESCAPE ISLAND 아이템.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\Document\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171FE34A-3887-4599-BA6B-98FADEA0FD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE20DE-E15C-4F1D-83E8-62161134AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48765" yWindow="405" windowWidth="17865" windowHeight="11295" activeTab="2" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C62DB4D4-4EA3-4FBD-82E2-99CB506D71E7}"/>
   </bookViews>
   <sheets>
     <sheet name="인원 수당 재료 수" sheetId="1" r:id="rId1"/>
@@ -357,48 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +383,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2186,6 +2186,67 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3FA3EF-1FA4-4464-8B06-DDDF23854484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4701743" y="18062863"/>
+          <a:ext cx="2981467" cy="1991591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>116136</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3097603</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2161061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B11245-8715-4A56-81B6-F1CC56FD86B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,669 +2602,764 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="9">
+      <c r="C5" s="18"/>
+      <c r="D5" s="12">
         <v>32</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="12">
         <v>10</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="12">
         <v>3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="12">
         <v>3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="12">
         <v>15</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="12">
         <v>10</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="12">
         <v>8</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="12">
         <v>6</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7">
+      <c r="C7" s="18"/>
+      <c r="D7" s="15">
         <v>36</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>15</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>12</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="15">
         <v>4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="15">
         <v>4</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="15">
         <v>16</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="15">
         <v>12</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="15">
         <v>10</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="12">
         <v>9</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="9">
+      <c r="C9" s="18"/>
+      <c r="D9" s="12">
         <v>40</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <v>18</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="12">
         <v>14</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="12">
         <v>5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="12">
         <v>5</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="12">
         <v>17</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="12">
         <v>14</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="12">
         <v>12</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="12">
         <v>12</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7">
+      <c r="C11" s="18"/>
+      <c r="D11" s="15">
         <v>44</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="15">
         <v>21</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <v>16</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="15">
         <v>6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="15">
         <v>6</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="15">
         <v>18</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="15">
         <v>16</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="15">
         <v>14</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="12">
         <v>15</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="B13" s="17">
         <v>8</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9">
+      <c r="C13" s="18"/>
+      <c r="D13" s="12">
         <v>48</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="12">
         <v>24</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="12">
         <v>18</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="12">
         <v>7</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="12">
         <v>7</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="12">
         <v>19</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="12">
         <v>18</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="12">
         <v>16</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="12">
         <v>18</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="B15" s="17">
         <v>9</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7">
+      <c r="C15" s="18"/>
+      <c r="D15" s="15">
         <v>52</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="15">
         <v>27</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="15">
         <v>20</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="15">
         <v>8</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="15">
         <v>8</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="15">
         <v>20</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="15">
         <v>20</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="15">
         <v>18</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="12">
         <v>21</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="B17" s="17">
         <v>10</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="9">
+      <c r="C17" s="18"/>
+      <c r="D17" s="12">
         <v>56</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="12">
         <v>30</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="12">
         <v>22</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="12">
         <v>9</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="12">
         <v>9</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="12">
         <v>21</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="12">
         <v>22</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="12">
         <v>20</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="12">
         <v>24</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+      <c r="B19" s="17">
         <v>11</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7">
+      <c r="C19" s="18"/>
+      <c r="D19" s="15">
         <v>60</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="15">
         <v>33</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="15">
         <v>24</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="15">
         <v>10</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="15">
         <v>10</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="15">
         <v>22</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="15">
         <v>24</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="15">
         <v>22</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="12">
         <v>27</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+      <c r="B21" s="17">
         <v>12</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="9">
+      <c r="C21" s="18"/>
+      <c r="D21" s="12">
         <v>64</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="12">
         <v>36</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="12">
         <v>26</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="12">
         <v>11</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="12">
         <v>11</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="12">
         <v>23</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="12">
         <v>26</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="12">
         <v>24</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="12">
         <v>30</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+      <c r="B23" s="17">
         <v>13</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7">
+      <c r="C23" s="18"/>
+      <c r="D23" s="15">
         <v>68</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="15">
         <v>39</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="15">
         <v>28</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="15">
         <v>12</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="15">
         <v>12</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="15">
         <v>24</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="15">
         <v>28</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="15">
         <v>26</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="12">
         <v>33</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+      <c r="B25" s="17">
         <v>14</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="9">
+      <c r="C25" s="18"/>
+      <c r="D25" s="12">
         <v>72</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="12">
         <v>42</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="12">
         <v>30</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="12">
         <v>13</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="12">
         <v>13</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="12">
         <v>25</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="12">
         <v>30</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="12">
         <v>28</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="12">
         <v>36</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="12">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+      <c r="B27" s="17">
         <v>15</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="7">
+      <c r="C27" s="18"/>
+      <c r="D27" s="15">
         <v>76</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="15">
         <v>45</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="15">
         <v>32</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="15">
         <v>14</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="15">
         <v>14</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="15">
         <v>26</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="15">
         <v>32</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="15">
         <v>30</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="12">
         <v>39</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="12">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B5:C6"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -3228,113 +3384,18 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M15:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3356,482 +3417,561 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="21">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="14">
         <v>5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <v>6</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="14">
         <v>7</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="14">
         <v>8</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="14">
         <v>9</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="14">
         <v>10</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="14">
         <v>11</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="14">
         <v>12</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="14">
         <v>13</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="14">
         <v>14</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="25">
         <v>90</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="12">
         <v>90</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <v>90</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="12">
         <v>90</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="12">
         <v>120</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="12">
         <v>120</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="12">
         <v>120</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="12">
         <v>120</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="12">
         <v>150</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="12">
         <v>150</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="12">
         <v>150</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="12">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="I11:I12"/>
@@ -3856,118 +3996,39 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3978,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6920F41F-4BB5-4DF8-AC05-BAB8CDAF8AAC}">
   <dimension ref="B3:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3990,7 +4051,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="17"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4010,116 +4071,116 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" ht="248.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="25" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="21" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
